--- a/jpcore-r4/feature/swg5-immunizationへのJPCore参照等/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/feature/swg5-immunizationへのJPCore参照等/StructureDefinition-jp-humanname.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="167">
   <si>
     <t>Property</t>
   </si>
@@ -302,14 +302,21 @@
     <t>HumanName.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -1230,11 +1237,11 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>77</v>
@@ -1249,15 +1256,17 @@
         <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
         <v>75</v>
@@ -1294,19 +1303,19 @@
         <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>76</v>
@@ -1318,13 +1327,13 @@
         <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>75</v>
@@ -1335,18 +1344,18 @@
         <v>93</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F5" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="G5" t="s" s="2">
         <v>75</v>
       </c>
@@ -1357,16 +1366,16 @@
         <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1416,7 +1425,7 @@
         <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>76</v>
@@ -1428,13 +1437,13 @@
         <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>75</v>
@@ -1442,7 +1451,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1459,25 +1468,25 @@
         <v>75</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O6" t="s" s="2">
         <v>75</v>
@@ -1502,13 +1511,13 @@
         <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>75</v>
@@ -1526,7 +1535,7 @@
         <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
@@ -1541,18 +1550,18 @@
         <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1572,22 +1581,22 @@
         <v>75</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O7" t="s" s="2">
         <v>75</v>
@@ -1636,7 +1645,7 @@
         <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
@@ -1651,10 +1660,10 @@
         <v>82</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>75</v>
@@ -1662,11 +1671,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -1682,19 +1691,19 @@
         <v>75</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1744,7 +1753,7 @@
         <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
@@ -1759,22 +1768,22 @@
         <v>82</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -1790,19 +1799,19 @@
         <v>75</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1852,7 +1861,7 @@
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
@@ -1867,18 +1876,18 @@
         <v>82</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1898,19 +1907,19 @@
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -1960,7 +1969,7 @@
         <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -1975,18 +1984,18 @@
         <v>82</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2006,19 +2015,19 @@
         <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2068,7 +2077,7 @@
         <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -2083,10 +2092,10 @@
         <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>75</v>
@@ -2094,7 +2103,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2114,22 +2123,22 @@
         <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>75</v>
@@ -2178,7 +2187,7 @@
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -2193,13 +2202,13 @@
         <v>82</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
